--- a/biology/Zoologie/Cynodontidae/Cynodontidae.xlsx
+++ b/biology/Zoologie/Cynodontidae/Cynodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cynodontidae sont une famille de poissons d'eau douce appartenant à l'ordre des Characiformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces poissons que regroupe cette famille vivent dans les pleines eaux des fleuves, lacs et forêts inondées de surface. La plupart des espèces de cette famille proviennent du bassin de l'Orénoque et de l'Amazone. Certaines espèces se rencontrent jusqu’au sud de Paraná au Paraguay et dans le bassin d’Uruguay ; également au Venezuela et en Colombie[1]. Les espèces fossiles sont également connues de l’Argentine mais, où ils sont introuvables aujourd’hui[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces poissons que regroupe cette famille vivent dans les pleines eaux des fleuves, lacs et forêts inondées de surface. La plupart des espèces de cette famille proviennent du bassin de l'Orénoque et de l'Amazone. Certaines espèces se rencontrent jusqu’au sud de Paraná au Paraguay et dans le bassin d’Uruguay ; également au Venezuela et en Colombie. Les espèces fossiles sont également connues de l’Argentine mais, où ils sont introuvables aujourd’hui.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (05 juin 2015)[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (05 juin 2015):
 sous-famille Cynodontinae Eigenmann, 1907
 genre Cynodon (Spix &amp; Agassiz, 1829)
 genre Hydrolycus (J. P. Müller &amp; Troschel, 1844)
